--- a/PANAMÁ/Indígenas/Indicadores sociodemo poblaciones y PI CELADE/% actividad economica Primaria - Indígenas Panama.xlsx
+++ b/PANAMÁ/Indígenas/Indicadores sociodemo poblaciones y PI CELADE/% actividad economica Primaria - Indígenas Panama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Indígenas\Indicadores sociodemo poblaciones y PI CELADE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA306140-89CB-4F9D-BAD1-E6B8AAACB7F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B8FBBB-3A69-4509-97BC-5FEA86AE2773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="43">
   <si>
     <t>CEPAL/CELADE Redatam+SP 10/12/2020</t>
   </si>
@@ -388,21 +388,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -412,29 +397,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -530,13 +512,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -549,6 +524,31 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -565,14 +565,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F65FCFB-AF1C-4728-9BB3-5B16FBC9F03D}" name="Tabla1" displayName="Tabla1" ref="A1:E109" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:E109" xr:uid="{15F21157-E5BA-40A4-8A28-A06CA748B795}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F65FCFB-AF1C-4728-9BB3-5B16FBC9F03D}" name="Tabla1" displayName="Tabla1" ref="A1:E91" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E91" xr:uid="{15F21157-E5BA-40A4-8A28-A06CA748B795}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0A6DB90F-D9CF-4400-AC2B-A45BEFE1F136}" name="Sexo" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{BA1BB36F-D563-448B-9EB8-DA20BFB29724}" name="Zona" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{43CC7C6E-D751-4B96-AF64-00C3CB03044D}" name="Grupo edad" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{56EA2466-ECF2-46D0-B1A5-65E5D2CC6D44}" name="año censo" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{1AED1B74-4D22-469F-A649-CA89F8C4BF90}" name="%" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0A6DB90F-D9CF-4400-AC2B-A45BEFE1F136}" name="Sexo" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{BA1BB36F-D563-448B-9EB8-DA20BFB29724}" name="Zona" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{43CC7C6E-D751-4B96-AF64-00C3CB03044D}" name="Grupo edad" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{56EA2466-ECF2-46D0-B1A5-65E5D2CC6D44}" name="año censo" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{1AED1B74-4D22-469F-A649-CA89F8C4BF90}" name="%" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -919,146 +919,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1085,10 +1085,10 @@
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1098,10 +1098,10 @@
     </row>
     <row r="12" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="4"/>
@@ -1120,8 +1120,8 @@
     </row>
     <row r="13" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1140,8 +1140,8 @@
     </row>
     <row r="14" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1160,8 +1160,8 @@
     </row>
     <row r="15" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1180,8 +1180,8 @@
     </row>
     <row r="16" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1200,8 +1200,8 @@
     </row>
     <row r="17" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1220,8 +1220,8 @@
     </row>
     <row r="18" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
@@ -1240,8 +1240,8 @@
     </row>
     <row r="19" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="4"/>
@@ -1260,8 +1260,8 @@
     </row>
     <row r="20" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
@@ -1280,8 +1280,8 @@
     </row>
     <row r="21" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
@@ -1300,8 +1300,8 @@
     </row>
     <row r="22" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
@@ -1320,8 +1320,8 @@
     </row>
     <row r="23" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="4" t="s">
         <v>19</v>
       </c>
@@ -1340,8 +1340,8 @@
     </row>
     <row r="24" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="4" t="s">
         <v>20</v>
       </c>
@@ -1360,8 +1360,8 @@
     </row>
     <row r="25" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="4" t="s">
         <v>21</v>
       </c>
@@ -1380,8 +1380,8 @@
     </row>
     <row r="26" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="4"/>
@@ -1400,8 +1400,8 @@
     </row>
     <row r="27" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="4" t="s">
         <v>16</v>
       </c>
@@ -1420,8 +1420,8 @@
     </row>
     <row r="28" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="4" t="s">
         <v>17</v>
       </c>
@@ -1440,8 +1440,8 @@
     </row>
     <row r="29" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="4" t="s">
         <v>18</v>
       </c>
@@ -1460,8 +1460,8 @@
     </row>
     <row r="30" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="4" t="s">
         <v>19</v>
       </c>
@@ -1480,8 +1480,8 @@
     </row>
     <row r="31" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="4" t="s">
         <v>20</v>
       </c>
@@ -1500,8 +1500,8 @@
     </row>
     <row r="32" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="4" t="s">
         <v>21</v>
       </c>
@@ -1520,8 +1520,8 @@
     </row>
     <row r="33" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="4"/>
@@ -1540,8 +1540,8 @@
     </row>
     <row r="34" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="4" t="s">
         <v>16</v>
       </c>
@@ -1560,8 +1560,8 @@
     </row>
     <row r="35" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="4" t="s">
         <v>17</v>
       </c>
@@ -1580,8 +1580,8 @@
     </row>
     <row r="36" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="4" t="s">
         <v>18</v>
       </c>
@@ -1600,8 +1600,8 @@
     </row>
     <row r="37" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="4" t="s">
         <v>19</v>
       </c>
@@ -1620,8 +1620,8 @@
     </row>
     <row r="38" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="4" t="s">
         <v>20</v>
       </c>
@@ -1640,8 +1640,8 @@
     </row>
     <row r="39" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="4" t="s">
         <v>21</v>
       </c>
@@ -1660,8 +1660,8 @@
     </row>
     <row r="40" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11" t="s">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="4"/>
@@ -1680,8 +1680,8 @@
     </row>
     <row r="41" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="4" t="s">
         <v>16</v>
       </c>
@@ -1700,8 +1700,8 @@
     </row>
     <row r="42" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="4" t="s">
         <v>17</v>
       </c>
@@ -1720,8 +1720,8 @@
     </row>
     <row r="43" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="4" t="s">
         <v>18</v>
       </c>
@@ -1740,8 +1740,8 @@
     </row>
     <row r="44" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="4" t="s">
         <v>19</v>
       </c>
@@ -1760,8 +1760,8 @@
     </row>
     <row r="45" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="4" t="s">
         <v>20</v>
       </c>
@@ -1780,8 +1780,8 @@
     </row>
     <row r="46" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="4" t="s">
         <v>21</v>
       </c>
@@ -1800,8 +1800,8 @@
     </row>
     <row r="47" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D47" s="4"/>
@@ -1820,8 +1820,8 @@
     </row>
     <row r="48" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="4" t="s">
         <v>16</v>
       </c>
@@ -1840,8 +1840,8 @@
     </row>
     <row r="49" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="4" t="s">
         <v>17</v>
       </c>
@@ -1860,8 +1860,8 @@
     </row>
     <row r="50" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="4" t="s">
         <v>18</v>
       </c>
@@ -1880,8 +1880,8 @@
     </row>
     <row r="51" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="4" t="s">
         <v>19</v>
       </c>
@@ -1900,8 +1900,8 @@
     </row>
     <row r="52" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="4" t="s">
         <v>20</v>
       </c>
@@ -1920,8 +1920,8 @@
     </row>
     <row r="53" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="4" t="s">
         <v>21</v>
       </c>
@@ -1940,8 +1940,8 @@
     </row>
     <row r="54" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11" t="s">
+      <c r="B54" s="22"/>
+      <c r="C54" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="4"/>
@@ -1960,8 +1960,8 @@
     </row>
     <row r="55" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="4" t="s">
         <v>16</v>
       </c>
@@ -1980,8 +1980,8 @@
     </row>
     <row r="56" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="4" t="s">
         <v>17</v>
       </c>
@@ -2000,8 +2000,8 @@
     </row>
     <row r="57" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="4" t="s">
         <v>18</v>
       </c>
@@ -2020,8 +2020,8 @@
     </row>
     <row r="58" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="4" t="s">
         <v>19</v>
       </c>
@@ -2040,8 +2040,8 @@
     </row>
     <row r="59" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="4" t="s">
         <v>20</v>
       </c>
@@ -2060,8 +2060,8 @@
     </row>
     <row r="60" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
       <c r="D60" s="4" t="s">
         <v>21</v>
       </c>
@@ -2080,8 +2080,8 @@
     </row>
     <row r="61" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11" t="s">
+      <c r="B61" s="22"/>
+      <c r="C61" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D61" s="4"/>
@@ -2100,8 +2100,8 @@
     </row>
     <row r="62" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="4" t="s">
         <v>16</v>
       </c>
@@ -2120,8 +2120,8 @@
     </row>
     <row r="63" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="4" t="s">
         <v>17</v>
       </c>
@@ -2140,8 +2140,8 @@
     </row>
     <row r="64" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="4" t="s">
         <v>18</v>
       </c>
@@ -2160,8 +2160,8 @@
     </row>
     <row r="65" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="4" t="s">
         <v>19</v>
       </c>
@@ -2180,8 +2180,8 @@
     </row>
     <row r="66" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="4" t="s">
         <v>20</v>
       </c>
@@ -2200,8 +2200,8 @@
     </row>
     <row r="67" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
       <c r="D67" s="4" t="s">
         <v>21</v>
       </c>
@@ -2220,8 +2220,8 @@
     </row>
     <row r="68" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11" t="s">
+      <c r="B68" s="22"/>
+      <c r="C68" s="22" t="s">
         <v>29</v>
       </c>
       <c r="D68" s="4"/>
@@ -2240,8 +2240,8 @@
     </row>
     <row r="69" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="4" t="s">
         <v>16</v>
       </c>
@@ -2260,8 +2260,8 @@
     </row>
     <row r="70" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="4" t="s">
         <v>17</v>
       </c>
@@ -2280,8 +2280,8 @@
     </row>
     <row r="71" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
       <c r="D71" s="4" t="s">
         <v>18</v>
       </c>
@@ -2300,8 +2300,8 @@
     </row>
     <row r="72" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
       <c r="D72" s="4" t="s">
         <v>19</v>
       </c>
@@ -2320,8 +2320,8 @@
     </row>
     <row r="73" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
       <c r="D73" s="4" t="s">
         <v>20</v>
       </c>
@@ -2340,8 +2340,8 @@
     </row>
     <row r="74" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
       <c r="D74" s="4" t="s">
         <v>21</v>
       </c>
@@ -2373,19 +2373,19 @@
       <c r="L75" s="1"/>
     </row>
     <row r="76" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
       <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2404,16 +2404,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="A76:K76"/>
     <mergeCell ref="B12:B74"/>
     <mergeCell ref="C12:C18"/>
@@ -2425,6 +2415,16 @@
     <mergeCell ref="C54:C60"/>
     <mergeCell ref="C61:C67"/>
     <mergeCell ref="C68:C74"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2437,10 +2437,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A87" sqref="A87:XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2450,1858 +2450,1552 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E2" s="16">
-        <v>73.62</v>
+      <c r="C2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="11">
+        <v>76.45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="11">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="11">
+        <v>70.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="11">
+        <v>75.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="11">
+        <v>85.86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E3" s="16">
-        <v>76.45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="D7" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E7" s="11">
+        <v>53.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="16">
-        <v>68.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="D8" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E8" s="11">
+        <v>50.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E5" s="16">
-        <v>70.47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="D9" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E9" s="11">
+        <v>51.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E6" s="16">
-        <v>75.56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="D10" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E10" s="11">
+        <v>55.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E7" s="16">
-        <v>85.86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="D11" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E11" s="11">
+        <v>67.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="11">
+        <v>19.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E13" s="11">
+        <v>18.329999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="11">
+        <v>20.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="11">
+        <v>24.59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="11">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E17" s="11">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E18" s="11">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E19" s="11">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E20" s="11">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E21" s="11">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="11">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="11">
+        <v>85.93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="11">
+        <v>85.71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="11">
+        <v>88.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="11">
+        <v>92.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E27" s="11">
+        <v>74.34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E28" s="11">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E29" s="11">
+        <v>71.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E30" s="11">
+        <v>73.58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E31" s="11">
+        <v>80.489999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E8" s="16">
-        <v>53.57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="C32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="11">
+        <v>46.22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="11">
+        <v>41.83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="11">
+        <v>44.84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="11">
+        <v>57.45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="11">
+        <v>66.53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E9" s="16">
-        <v>53.62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="D37" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E37" s="11">
+        <v>18.89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E10" s="16">
-        <v>50.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="D38" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E38" s="11">
+        <v>20.37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E11" s="16">
-        <v>51.61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="D39" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E39" s="11">
+        <v>21.98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E12" s="16">
-        <v>55.37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="D40" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E40" s="11">
+        <v>27.99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C41" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E13" s="16">
-        <v>67.89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="D41" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E41" s="11">
+        <v>40.64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E14" s="16">
-        <v>20.22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="C42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="11">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="11">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="11">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E15" s="16">
-        <v>19.59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="14" t="s">
+      <c r="D47" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E47" s="11">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C48" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E16" s="16">
-        <v>18.329999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="D48" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E48" s="11">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E17" s="16">
-        <v>20.96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="14" t="s">
+      <c r="D49" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E49" s="11">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C50" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E18" s="16">
-        <v>24.59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="D50" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E50" s="11">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C51" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="16">
-        <v>17.149999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="14" t="s">
+      <c r="D51" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E51" s="11">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="11">
+        <v>64.63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E53" s="11">
+        <v>58.33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="11">
+        <v>63.14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E55" s="11">
+        <v>73.430000000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E56" s="11">
+        <v>74.430000000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E57" s="11">
+        <v>33.369999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E58" s="11">
+        <v>36.29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E59" s="11">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E60" s="11">
+        <v>45.48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E61" s="11">
+        <v>50.52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E20" s="16">
-        <v>13.06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="14" t="s">
+      <c r="C62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="11">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E63" s="11">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E64" s="11">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E65" s="11">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="11">
+        <v>15.79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E21" s="16">
-        <v>11.72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="14" t="s">
+      <c r="D67" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E67" s="11">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C68" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E22" s="16">
-        <v>13.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="14" t="s">
+      <c r="D68" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E68" s="11">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C69" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E23" s="16">
-        <v>13.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="14" t="s">
+      <c r="D69" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E69" s="11">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C70" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E24" s="16">
-        <v>14.35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="14" t="s">
+      <c r="D70" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E70" s="11">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C71" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E25" s="16">
-        <v>12.07</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="14" t="s">
+      <c r="D71" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E71" s="11">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E26" s="16">
-        <v>88.28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="C72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E72" s="11">
+        <v>85.88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E73" s="11">
+        <v>81.19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E74" s="11">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E75" s="11">
+        <v>86.63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E76" s="11">
+        <v>90.89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E27" s="16">
-        <v>90.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="14" t="s">
+      <c r="D77" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E77" s="11">
+        <v>66.72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C78" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E28" s="16">
-        <v>85.93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="14" t="s">
+      <c r="D78" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E78" s="11">
+        <v>64.23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C79" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E29" s="16">
-        <v>85.71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="14" t="s">
+      <c r="D79" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E79" s="11">
+        <v>64.38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C80" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E30" s="16">
-        <v>88.95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="14" t="s">
+      <c r="D80" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E80" s="11">
+        <v>68.11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C81" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E31" s="16">
-        <v>92.81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E32" s="16">
-        <v>72.930000000000007</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="14" t="s">
+      <c r="D81" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E81" s="11">
+        <v>76.209999999999994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E33" s="16">
-        <v>74.34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="14" t="s">
+      <c r="D82" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E82" s="11">
+        <v>70.489999999999995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E34" s="16">
-        <v>70.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="14" t="s">
+      <c r="D83" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="11">
+        <v>63.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E35" s="16">
-        <v>71.02</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="14" t="s">
+      <c r="D84" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E84" s="11">
+        <v>65.680000000000007</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E36" s="16">
-        <v>73.58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="14" t="s">
+      <c r="D85" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E85" s="11">
+        <v>72.790000000000006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E37" s="16">
-        <v>80.489999999999995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="14" t="s">
+      <c r="D86" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E86" s="11">
+        <v>83.78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E38" s="16">
-        <v>47.07</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="14" t="s">
+      <c r="C87" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E87" s="11">
+        <v>46.09</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E39" s="16">
-        <v>46.22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="14" t="s">
+      <c r="C88" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E88" s="11">
+        <v>43.94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E40" s="16">
-        <v>41.83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="14" t="s">
+      <c r="C89" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E89" s="11">
+        <v>44.86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E41" s="16">
-        <v>44.84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="14" t="s">
+      <c r="C90" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="9">
+        <v>2010</v>
+      </c>
+      <c r="E90" s="11">
+        <v>49.41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E42" s="16">
-        <v>57.45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="14" t="s">
+      <c r="C91" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E43" s="16">
-        <v>66.53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E44" s="16">
-        <v>22.64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E45" s="16">
-        <v>18.89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E46" s="16">
-        <v>20.37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E47" s="16">
-        <v>21.98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E48" s="16">
-        <v>27.99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E49" s="16">
-        <v>40.64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E50" s="16">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E51" s="16">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E52" s="16">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E53" s="16">
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E54" s="16">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E55" s="16">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E56" s="16">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E57" s="16">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E58" s="16">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E59" s="16">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E60" s="16">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E61" s="16">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E62" s="16">
-        <v>64.37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E63" s="16">
-        <v>64.63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E64" s="16">
-        <v>58.33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E65" s="16">
-        <v>63.14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E66" s="16">
-        <v>73.430000000000007</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E67" s="16">
-        <v>74.430000000000007</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E68" s="16">
-        <v>38.56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E69" s="16">
-        <v>33.369999999999997</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E70" s="16">
-        <v>36.29</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E71" s="16">
-        <v>37.700000000000003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E72" s="16">
-        <v>45.48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E73" s="16">
-        <v>50.52</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E74" s="16">
-        <v>16.29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E75" s="16">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E76" s="16">
-        <v>15.01</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E77" s="16">
-        <v>16.77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E78" s="16">
-        <v>21.2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E79" s="16">
-        <v>15.79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E80" s="16">
-        <v>10.06</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E81" s="16">
-        <v>8.81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E82" s="16">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E83" s="16">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E84" s="16">
-        <v>10.96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E85" s="16">
-        <v>10.37</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E86" s="16">
-        <v>84.33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E87" s="16">
-        <v>85.88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D88" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E88" s="16">
-        <v>81.19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E89" s="16">
-        <v>81.8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E90" s="16">
-        <v>86.63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E91" s="16">
-        <v>90.89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E92" s="16">
-        <v>66.52</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E93" s="16">
-        <v>66.72</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D94" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E94" s="16">
-        <v>64.23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E95" s="16">
-        <v>64.38</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E96" s="16">
-        <v>68.11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E97" s="16">
-        <v>76.209999999999994</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E98" s="16">
-        <v>68.92</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E99" s="16">
-        <v>70.489999999999995</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E100" s="16">
-        <v>63.95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E101" s="16">
-        <v>65.680000000000007</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E102" s="16">
-        <v>72.790000000000006</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E103" s="16">
-        <v>83.78</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E104" s="16">
-        <v>46.91</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E105" s="16">
-        <v>46.09</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D106" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E106" s="16">
-        <v>43.94</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E107" s="16">
-        <v>44.86</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E108" s="16">
-        <v>49.41</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B109" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="18">
-        <v>2010</v>
-      </c>
-      <c r="E109" s="19">
+      <c r="D91" s="13">
+        <v>2010</v>
+      </c>
+      <c r="E91" s="14">
         <v>63.94</v>
       </c>
     </row>
